--- a/upload/base/简历表（模板3）.xlsx
+++ b/upload/base/简历表（模板3）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="7590"/>
+    <workbookView windowWidth="20340" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="任免审批表1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -166,6 +166,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,25 +245,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,14 +277,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,69 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +670,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,27 +707,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,17 +754,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -970,7 +970,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,9 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1043,9 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1406,15 +1400,17 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="16.7583333333333" customWidth="1"/>
+    <col min="2" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41" customHeight="1" spans="1:7">
@@ -1583,276 +1579,276 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:7">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" ht="12" customHeight="1" spans="1:7">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:7">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:7">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" ht="12" customHeight="1" spans="1:7">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" ht="12" customHeight="1" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" ht="12" customHeight="1" spans="1:7">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" ht="12" customHeight="1" spans="1:7">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" ht="12" customHeight="1" spans="1:7">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" ht="12" customHeight="1" spans="1:7">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" ht="12" customHeight="1" spans="1:7">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:7">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:7">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:7">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" ht="12" customHeight="1" spans="1:7">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" ht="12" customHeight="1" spans="1:7">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" ht="12" customHeight="1" spans="1:7">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" ht="12" customHeight="1" spans="1:7">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" ht="12" customHeight="1" spans="1:7">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" ht="12" customHeight="1" spans="1:7">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" ht="12" customHeight="1" spans="1:7">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" ht="12" customHeight="1" spans="1:7">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" ht="12" customHeight="1" spans="1:7">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" ht="12" customHeight="1" spans="1:7">
+      <c r="A43" s="5"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -1923,8 +1919,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1935,7 +1931,7 @@
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="32.7583333333333" customWidth="1"/>
+    <col min="7" max="7" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1"/>
@@ -2056,7 +2052,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:7">
+    <row r="13" ht="80" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -2073,7 +2069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="59.5" customHeight="1" spans="1:7">
+    <row r="15" ht="64.5" customHeight="1" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
